--- a/DecisionTree/DecisionTreeBinary/DecisionTreeDepth.xlsx
+++ b/DecisionTree/DecisionTreeBinary/DecisionTreeDepth.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\zOutros_Materiais\I\P\N\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\DS_Share\Github\DecisionTree\DecisionTreeBinary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042958FA-4A20-4354-B325-CB5233D73236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C33ED-D613-4D25-ADF1-EAC4E6B3AD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5855" yWindow="3831" windowWidth="19562" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,9 +30,6 @@
     <t>Depth</t>
   </si>
   <si>
-    <t>LOG</t>
-  </si>
-  <si>
     <t>Amostras</t>
   </si>
   <si>
@@ -46,6 +37,9 @@
   </si>
   <si>
     <t>m menor igual a 2^(d+1) - 1</t>
+  </si>
+  <si>
+    <t>LOG(Amostras)</t>
   </si>
 </sst>
 </file>
@@ -370,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K33"/>
+  <dimension ref="B3:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -386,10 +380,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -401,7 +395,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f>POWER(2,C4)-1</f>
+        <f t="shared" ref="D4:D26" si="0">POWER(2,C4)-1</f>
         <v>1</v>
       </c>
       <c r="F4">
@@ -411,7 +405,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f t="shared" ref="B5:B29" si="0">C5-1</f>
+        <f t="shared" ref="B5:B29" si="1">C5-1</f>
         <v>1</v>
       </c>
       <c r="C5">
@@ -419,173 +413,173 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <f>POWER(2,C5)-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F29" si="1">LOG(D5,2)</f>
+        <f t="shared" ref="F5:F29" si="2">LOG(D5,2)</f>
         <v>1.5849625007211563</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C29" si="2">C5+1</f>
+        <f t="shared" ref="C6:C29" si="3">C5+1</f>
         <v>3</v>
       </c>
       <c r="D6">
-        <f>POWER(2,C6)-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8073549220576042</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D7">
-        <f>POWER(2,C7)-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9068905956085187</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D8">
-        <f>POWER(2,C8)-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9541963103868758</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D9">
-        <f>POWER(2,C9)-1</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9772799234999168</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D10">
-        <f>POWER(2,C10)-1</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9886846867721664</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D11">
-        <f>POWER(2,C11)-1</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9943534368588578</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D12">
-        <f>POWER(2,C12)-1</f>
+        <f t="shared" si="0"/>
         <v>511</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9971794809376213</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D13">
-        <f>POWER(2,C13)-1</f>
+        <f t="shared" si="0"/>
         <v>1023</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9985904297453292</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D14">
-        <f>POWER(2,C14)-1</f>
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.999295387023411</v>
       </c>
       <c r="H14" s="1"/>
@@ -594,326 +588,79 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <f>POWER(2,C15)-1</f>
-        <v>4095</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>11.99964773652837</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <f>POWER(2,C16)-1</f>
-        <v>8191</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>12.999823879015727</v>
-      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <f>POWER(2,C17)-1</f>
-        <v>16383</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>13.999911942195421</v>
-      </c>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <f>POWER(2,C18)-1</f>
-        <v>32767</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>14.999955971769559</v>
-      </c>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <f>POWER(2,C19)-1</f>
-        <v>65535</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>15.999977986052738</v>
-      </c>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1">
         <f>POWER(2,I19+1)-1</f>
-        <v>8388607</v>
+        <v>2047</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <f>POWER(2,C20)-1</f>
-        <v>131071</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>16.999988993068357</v>
-      </c>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1">
         <f>POWER(2,I20+1)-1</f>
-        <v>16777215</v>
+        <v>4095</v>
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <f>POWER(2,C21)-1</f>
-        <v>262143</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>17.999994496544677</v>
-      </c>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <f>POWER(2,C22)-1</f>
-        <v>524287</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>18.999997248274962</v>
-      </c>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <f>POWER(2,C23)-1</f>
-        <v>1048575</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>19.999998624138136</v>
-      </c>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <f>POWER(2,C24)-1</f>
-        <v>2097151</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>20.999999312069232</v>
-      </c>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <f>POWER(2,C25)-1</f>
-        <v>4194303</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>21.999999656034657</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <f>POWER(2,C26)-1</f>
-        <v>8388607</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>22.999999828017341</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>10000000</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>23.253496664211539</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C28">
-        <f>C26+1</f>
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <f>POWER(2,C28)-1</f>
-        <v>16777215</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>23.999999914008672</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D29">
-        <f>POWER(2,C29)-1</f>
-        <v>33554431</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>24.999999957004338</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <f>LOG(10000000,2)</f>
-        <v>23.253496664211539</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
